--- a/Library/DPU01_Lib Demo3.xlsx
+++ b/Library/DPU01_Lib Demo3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>DPU01_Lib Demo3</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>OUTPUTS</t>
+  </si>
+  <si>
+    <t>FUNCTION BLOCK DESCRIPTION</t>
   </si>
   <si>
     <t>DESCRIPTION</t>
@@ -162,7 +165,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -175,6 +178,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,7 +223,7 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -586,101 +594,101 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="n"/>
       <c r="D11" s="4" t="n"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="n"/>
       <c r="D12" s="4" t="n"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="n"/>
       <c r="D13" s="4" t="n"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="n"/>
       <c r="D14" s="4" t="n"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="n"/>
       <c r="D15" s="4" t="n"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="n"/>
       <c r="D16" s="4" t="n"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="n"/>
       <c r="D17" s="4" t="n"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="n"/>
       <c r="D18" s="4" t="n"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="n"/>
       <c r="D19" s="4" t="n"/>
@@ -688,7 +696,7 @@
     <row r="20" spans="1:6"/>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -702,21 +710,21 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="n"/>
       <c r="D23" s="4" t="n"/>
@@ -725,10 +733,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="n"/>
       <c r="D24" s="4" t="n"/>
@@ -737,10 +745,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4" t="n"/>
       <c r="D25" s="4" t="n"/>
@@ -749,10 +757,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4" t="n"/>
       <c r="D26" s="4" t="n"/>

--- a/Library/DPU01_Lib Demo3.xlsx
+++ b/Library/DPU01_Lib Demo3.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>DPU01_Lib Demo3</t>
   </si>
@@ -141,6 +142,18 @@
   </si>
   <si>
     <t>HTR HL Alarm</t>
+  </si>
+  <si>
+    <t>Page count</t>
+  </si>
+  <si>
+    <t>Page list</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -776,4 +789,42 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/Library/DPU01_Lib Demo3.xlsx
+++ b/Library/DPU01_Lib Demo3.xlsx
@@ -54,67 +54,67 @@
     <t>OUTPUTS</t>
   </si>
   <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>AO001</t>
+  </si>
+  <si>
+    <t>HTR LEVEL</t>
+  </si>
+  <si>
+    <t>AO002</t>
+  </si>
+  <si>
+    <t>HTR LCV CMD</t>
+  </si>
+  <si>
+    <t>AO003</t>
+  </si>
+  <si>
+    <t>HTR LVL SP</t>
+  </si>
+  <si>
+    <t>AO004</t>
+  </si>
+  <si>
+    <t>HTR LVL FO</t>
+  </si>
+  <si>
+    <t>DO001</t>
+  </si>
+  <si>
+    <t>HTR LEVEL DEV HI</t>
+  </si>
+  <si>
+    <t>DO002</t>
+  </si>
+  <si>
+    <t>HTR LEVEL BQ</t>
+  </si>
+  <si>
+    <t>DO003</t>
+  </si>
+  <si>
+    <t>HTR OVRD OPEN</t>
+  </si>
+  <si>
+    <t>DO004</t>
+  </si>
+  <si>
+    <t>HTR LCV MAN</t>
+  </si>
+  <si>
+    <t>DO005</t>
+  </si>
+  <si>
+    <t>HTR LVL MRE</t>
+  </si>
+  <si>
+    <t>PARAMETERS</t>
+  </si>
+  <si>
     <t>FUNCTION BLOCK DESCRIPTION</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>AO001</t>
-  </si>
-  <si>
-    <t>HTR LEVEL</t>
-  </si>
-  <si>
-    <t>AO002</t>
-  </si>
-  <si>
-    <t>HTR LCV CMD</t>
-  </si>
-  <si>
-    <t>AO003</t>
-  </si>
-  <si>
-    <t>HTR LVL SP</t>
-  </si>
-  <si>
-    <t>AO004</t>
-  </si>
-  <si>
-    <t>HTR LVL FO</t>
-  </si>
-  <si>
-    <t>DO001</t>
-  </si>
-  <si>
-    <t>HTR LEVEL DEV HI</t>
-  </si>
-  <si>
-    <t>DO002</t>
-  </si>
-  <si>
-    <t>HTR LEVEL BQ</t>
-  </si>
-  <si>
-    <t>DO003</t>
-  </si>
-  <si>
-    <t>HTR OVRD OPEN</t>
-  </si>
-  <si>
-    <t>DO004</t>
-  </si>
-  <si>
-    <t>HTR LCV MAN</t>
-  </si>
-  <si>
-    <t>DO005</t>
-  </si>
-  <si>
-    <t>HTR LVL MRE</t>
-  </si>
-  <si>
-    <t>PARAMETERS</t>
   </si>
   <si>
     <t>PARA</t>
@@ -607,101 +607,101 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="4" t="n"/>
       <c r="D11" s="4" t="n"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="4" t="n"/>
       <c r="D12" s="4" t="n"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="4" t="n"/>
       <c r="D13" s="4" t="n"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="4" t="n"/>
       <c r="D14" s="4" t="n"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C15" s="4" t="n"/>
       <c r="D15" s="4" t="n"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C16" s="4" t="n"/>
       <c r="D16" s="4" t="n"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C17" s="4" t="n"/>
       <c r="D17" s="4" t="n"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="C18" s="4" t="n"/>
       <c r="D18" s="4" t="n"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C19" s="4" t="n"/>
       <c r="D19" s="4" t="n"/>
@@ -709,7 +709,7 @@
     <row r="20" spans="1:6"/>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -717,13 +717,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>33</v>
@@ -749,7 +749,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="n"/>
       <c r="D24" s="4" t="n"/>
